--- a/קבצי אקסל/לקוחות מתענינים.xlsx
+++ b/קבצי אקסל/לקוחות מתענינים.xlsx
@@ -421,7 +421,7 @@
         <v>0556726376</v>
       </c>
       <c r="C2" t="str">
-        <v>בהמתנה</v>
+        <v>לא רלוונטי</v>
       </c>
     </row>
     <row r="3">

--- a/קבצי אקסל/לקוחות מתענינים.xlsx
+++ b/קבצי אקסל/לקוחות מתענינים.xlsx
@@ -421,7 +421,7 @@
         <v>0556726376</v>
       </c>
       <c r="C2" t="str">
-        <v>לא רלוונטי</v>
+        <v>ת.ז שגוייה</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>789456123</v>
       </c>
       <c r="C3" t="str">
-        <v>חדש</v>
+        <v>חוזה ומונה חסרים</v>
       </c>
     </row>
   </sheetData>

--- a/קבצי אקסל/לקוחות מתענינים.xlsx
+++ b/קבצי אקסל/לקוחות מתענינים.xlsx
@@ -432,7 +432,7 @@
         <v>789456123</v>
       </c>
       <c r="C3" t="str">
-        <v>חוזה ומונה חסרים</v>
+        <v>חוזה חסר</v>
       </c>
     </row>
   </sheetData>
